--- a/PhoenixCI/Excel_Template/30220.xlsx
+++ b/PhoenixCI/Excel_Template/30220.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\Workspaces\PhoenixCI\PhoenixCI_Kj\PhoenixCI\bin\Debug\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65693811-3BDB-4C0C-A921-178AA3C9EBA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F48501-831D-49BF-B7D4-0602BD808F69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18180" windowHeight="11475"/>
   </bookViews>
@@ -300,7 +300,7 @@
         <xdr:cNvPr id="1033" name="圓角矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497F7E74-FD32-4A76-813D-77FFAA3AF6A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0955A6F6-DE70-4EA8-9065-F41480022312}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/PhoenixCI/Excel_Template/30220.xlsx
+++ b/PhoenixCI/Excel_Template/30220.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\source\Workspaces\PhoenixCI\PhoenixCI_Kj\PhoenixCI\bin\Debug\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F48501-831D-49BF-B7D4-0602BD808F69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65693811-3BDB-4C0C-A921-178AA3C9EBA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="18180" windowHeight="11475"/>
   </bookViews>
@@ -300,7 +300,7 @@
         <xdr:cNvPr id="1033" name="圓角矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0955A6F6-DE70-4EA8-9065-F41480022312}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497F7E74-FD32-4A76-813D-77FFAA3AF6A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
